--- a/LongboardLights Gen2 BOM.xlsx
+++ b/LongboardLights Gen2 BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Description</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>SDM2A20CSP-7DICT-ND</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>36-1043-ND</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
   </si>
 </sst>
 </file>
@@ -528,10 +537,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,10 +882,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -895,18 +904,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D2" s="5" t="s">
@@ -982,8 +991,8 @@
         <v>1</v>
       </c>
       <c r="C6" s="12">
-        <f>(B6*$H$22)</f>
-        <v>2</v>
+        <f>(B6*$H$23)</f>
+        <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>18</v>
@@ -1003,7 +1012,7 @@
       </c>
       <c r="I6" s="14">
         <f>(C6*H6)</f>
-        <v>1.82</v>
+        <v>0.91</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>16</v>
@@ -1023,8 +1032,8 @@
         <v>2</v>
       </c>
       <c r="C7" s="12">
-        <f t="shared" ref="C7:C19" si="0">(B7*$H$22)</f>
-        <v>4</v>
+        <f t="shared" ref="C7:C20" si="0">(B7*$H$23)</f>
+        <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
@@ -1043,8 +1052,8 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" ref="I7:I15" si="1">(C7*H7)</f>
-        <v>4.5599999999999996</v>
+        <f t="shared" ref="I7:I16" si="1">(C7*H7)</f>
+        <v>2.2799999999999998</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>64</v>
@@ -1065,7 +1074,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>25</v>
@@ -1083,7 +1092,7 @@
       </c>
       <c r="I8" s="14">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>37</v>
@@ -1104,7 +1113,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>26</v>
@@ -1122,7 +1131,7 @@
       </c>
       <c r="I9" s="14">
         <f>(C9*H9)</f>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>34</v>
@@ -1143,7 +1152,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>27</v>
@@ -1161,7 +1170,7 @@
       </c>
       <c r="I10" s="14">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>48</v>
@@ -1182,7 +1191,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>28</v>
@@ -1200,7 +1209,7 @@
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>45</v>
@@ -1221,7 +1230,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>30</v>
@@ -1239,7 +1248,7 @@
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>57</v>
@@ -1261,7 +1270,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>31</v>
@@ -1279,7 +1288,7 @@
       </c>
       <c r="I13" s="14">
         <f t="shared" si="1"/>
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>56</v>
@@ -1300,7 +1309,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>32</v>
@@ -1320,7 +1329,7 @@
       </c>
       <c r="I14" s="14">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>73</v>
@@ -1341,7 +1350,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>29</v>
@@ -1361,7 +1370,7 @@
       </c>
       <c r="I15" s="14">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>46</v>
@@ -1374,163 +1383,196 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
       <c r="C16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1043</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="14">
+        <f>IF(C16&lt;=9,2.31,IF(C16&lt;=49,1.962,IF(C16&lt;=99,1.7622)))</f>
+        <v>2.31</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>2.31</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
-        <v>12</v>
-      </c>
-      <c r="B17" s="23">
-        <v>2</v>
-      </c>
+      <c r="A17" s="25"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="14">
-        <f>IF(C17&lt;=9,1.22,IF(C17&lt;=99,1.159,IF(C17&gt;=100,1.037)))</f>
-        <v>1.22</v>
-      </c>
-      <c r="I17" s="14">
-        <f>C17*H17</f>
-        <v>4.88</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="23">
+        <v>2</v>
+      </c>
       <c r="C18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="14">
+        <f>IF(C18&lt;=9,1.22,IF(C18&lt;=99,1.159,IF(C18&gt;=100,1.037)))</f>
+        <v>1.22</v>
+      </c>
+      <c r="I18" s="14">
+        <f>C18*H18</f>
+        <v>2.44</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="33">
-        <v>23</v>
-      </c>
-      <c r="B19" s="23">
-        <v>1</v>
-      </c>
+      <c r="A19" s="34"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="33">
+        <v>23</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="32">
+      <c r="G20" s="10"/>
+      <c r="H20" s="32">
         <v>2.15</v>
       </c>
-      <c r="I19" s="14">
-        <f t="shared" ref="I19" si="2">C19*H19</f>
-        <v>4.3</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G22" s="22" t="s">
+      <c r="I20" s="14">
+        <f t="shared" ref="I20" si="2">C20*H20</f>
+        <v>2.15</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="1">
-        <v>2</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I23" s="7">
-        <f>SUM(I6:I15)</f>
-        <v>9.5</v>
-      </c>
-    </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I24" s="1"/>
+      <c r="I24" s="7">
+        <f>SUM(I6:I16)</f>
+        <v>7.0600000000000005</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I26" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I26" s="7">
-        <f>SUM(I6,I8:I15,I17)</f>
-        <v>9.82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I28" s="5" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I27" s="7">
+        <f>SUM(I6,I8:I16,I18)</f>
+        <v>7.2200000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I29" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I29" s="7">
-        <f>SUM(I19:I19)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I31" s="5" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I30" s="7">
+        <f>SUM(I20:I20)</f>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I32" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I32" s="7">
-        <f>SUM(I23+I26+(2*I29))</f>
-        <v>27.92</v>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="7">
+        <f>SUM(I24+I27+(2*I30))</f>
+        <v>18.580000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/LongboardLights Gen2 BOM.xlsx
+++ b/LongboardLights Gen2 BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -313,6 +313,21 @@
   <si>
     <t>Keystone Electronics</t>
   </si>
+  <si>
+    <t>LC05111C02MTTTGOSCT-ND</t>
+  </si>
+  <si>
+    <t>DMN2040LTS-13</t>
+  </si>
+  <si>
+    <t>MCP73833T-FCI/MF</t>
+  </si>
+  <si>
+    <t>TPS55330RTER</t>
+  </si>
+  <si>
+    <t>bq29700</t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +337,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -358,6 +373,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -447,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,6 +561,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,10 +907,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1569,10 +1594,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I33" s="7">
         <f>SUM(I24+I27+(2*I30))</f>
         <v>18.580000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D38" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F46" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="38" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/LongboardLights Gen2 BOM.xlsx
+++ b/LongboardLights Gen2 BOM.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Turnkey" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$L$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$L$24</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="174">
   <si>
     <t>Description</t>
   </si>
@@ -99,42 +99,15 @@
     <t>SMD-2</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3,C4,C5</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>D4</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
-    <t>GRM188R61E225MA12D</t>
-  </si>
-  <si>
-    <t>2.2uF Capacitor</t>
-  </si>
-  <si>
-    <t>GRM21BR61E475KA12L</t>
-  </si>
-  <si>
-    <t>81-GRM21BR61E475KA12</t>
-  </si>
-  <si>
     <t>4.7uF Capacitor</t>
   </si>
   <si>
@@ -150,31 +123,10 @@
     <t>Taillight Total:</t>
   </si>
   <si>
-    <t>81-GRM188R61E225MA2D</t>
-  </si>
-  <si>
-    <t>RLP73N2AR30JTD</t>
-  </si>
-  <si>
-    <t>279-RLP73N2AR30JTD</t>
-  </si>
-  <si>
-    <t>0.3 ohm resistor</t>
-  </si>
-  <si>
     <t>Schottky Diode</t>
   </si>
   <si>
-    <t>PowerDI-123</t>
-  </si>
-  <si>
     <t>1uF Capacitor</t>
-  </si>
-  <si>
-    <t>GRM188R61E105KA12D</t>
-  </si>
-  <si>
-    <t>81-GRM188R61E105KA12</t>
   </si>
   <si>
     <t>PCB Total:</t>
@@ -245,21 +197,6 @@
     <t>10k ohm resistor</t>
   </si>
   <si>
-    <t>38k ohm resistor</t>
-  </si>
-  <si>
-    <t>667-ERJ-3GEYJ103V</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ103V</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-0738K3L</t>
-  </si>
-  <si>
-    <t>RC0603FR-0738K3L</t>
-  </si>
-  <si>
     <t>XPGDWT-B1-0000-00LE1CT-ND</t>
   </si>
   <si>
@@ -299,12 +236,6 @@
     <t>6mm x 6mm</t>
   </si>
   <si>
-    <t>SDM2A20CSP-7</t>
-  </si>
-  <si>
-    <t>SDM2A20CSP-7DICT-ND</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -326,18 +257,353 @@
     <t>TPS55330RTER</t>
   </si>
   <si>
-    <t>bq29700</t>
+    <t>SS24FL</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>D3,D4</t>
+  </si>
+  <si>
+    <t>C1,C11</t>
+  </si>
+  <si>
+    <t>0.1uF Capacitor</t>
+  </si>
+  <si>
+    <t>C2,C8</t>
+  </si>
+  <si>
+    <t>C3,C4</t>
+  </si>
+  <si>
+    <t>C5,C9,C10</t>
+  </si>
+  <si>
+    <t>10uF Capacitor</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Micro USB Port</t>
+  </si>
+  <si>
+    <t>26K ohm Resistor</t>
+  </si>
+  <si>
+    <t>0.3 ohm Resistor</t>
+  </si>
+  <si>
+    <t>R3,R7,R12</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>2.2K Ohm Resistor</t>
+  </si>
+  <si>
+    <t>330 Ohm Resistor</t>
+  </si>
+  <si>
+    <t>60.4K Ohm Resistor</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>562 Ohm Resistor</t>
+  </si>
+  <si>
+    <t>20K Ohm Resistor</t>
+  </si>
+  <si>
+    <t>1K Ohm Resistor</t>
+  </si>
+  <si>
+    <t>63.4K Ohm Resistor</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>6.8uH Inductor</t>
+  </si>
+  <si>
+    <t>Battery Holder</t>
+  </si>
+  <si>
+    <t>Dual NMOS common drain</t>
+  </si>
+  <si>
+    <t>Battery Charger IC</t>
+  </si>
+  <si>
+    <t>SMPS IC</t>
+  </si>
+  <si>
+    <t>Battery Protection IC</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Power Button</t>
+  </si>
+  <si>
+    <t>SS24FLCT-ND</t>
+  </si>
+  <si>
+    <t>BQ29700DSER</t>
+  </si>
+  <si>
+    <t>296-43985-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/bq2971.pdf</t>
+  </si>
+  <si>
+    <t>6-WFDFN</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AL8805.pdf</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>MCP73833T-FCI/MFCT-ND</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>296-39425-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tps55330.pdf</t>
+  </si>
+  <si>
+    <t>16-WFQFN</t>
+  </si>
+  <si>
+    <t>http://www.microchip.com/mymicrochip/filehandler.aspx?ddocname=en027983</t>
+  </si>
+  <si>
+    <t>10-DFN</t>
+  </si>
+  <si>
+    <t>DMN2040LTS-13DICT-ND</t>
+  </si>
+  <si>
+    <t>8-TSSOP</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/ds31941.pdf</t>
+  </si>
+  <si>
+    <t>https://www.fairchildsemi.com/datasheets/SS/SS24FL.pdf</t>
+  </si>
+  <si>
+    <t>SOD-123F</t>
+  </si>
+  <si>
+    <t>http://www.cree.com/led-components/media/documents/dsXPG3.pdf</t>
+  </si>
+  <si>
+    <t>ThruHole</t>
+  </si>
+  <si>
+    <t>5.1nF (5100pF) Capacitor</t>
+  </si>
+  <si>
+    <t>490-6399-1-ND</t>
+  </si>
+  <si>
+    <t>GRM1887U1H512JA01D</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>56nF (0.056uF) Capacitor</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>1276-2096-1-ND</t>
+  </si>
+  <si>
+    <t>CL10B563KB8NNNC</t>
+  </si>
+  <si>
+    <t>270nF (0.27uF) Capacitor</t>
+  </si>
+  <si>
+    <t>GCM188R71C274KA37D</t>
+  </si>
+  <si>
+    <t>490-16405-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1005-1-ND</t>
+  </si>
+  <si>
+    <t>CL10B104KO8NNNC</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1784-1-ND</t>
+  </si>
+  <si>
+    <t>1276-6524-1-ND</t>
+  </si>
+  <si>
+    <t>CL10B105MO8NNWC</t>
+  </si>
+  <si>
+    <t>CL21A106KOQNNNG</t>
+  </si>
+  <si>
+    <t>1276-6455-1-ND</t>
+  </si>
+  <si>
+    <t>RUT1608FR300CS</t>
+  </si>
+  <si>
+    <t>1276-6168-1-ND</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>311-26.1KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0726K1L</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>311-10.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603JR-072K2L</t>
+  </si>
+  <si>
+    <t>311-2.2KGRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603JR-07330RL</t>
+  </si>
+  <si>
+    <t>311-330GRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0760K4L</t>
+  </si>
+  <si>
+    <t>311-60.4KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07562RL</t>
+  </si>
+  <si>
+    <t>311-562HRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>311-1.00KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603JR-0720KL</t>
+  </si>
+  <si>
+    <t>311-20KGRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0763K4L</t>
+  </si>
+  <si>
+    <t>311-63.4KHRCT-ND</t>
+  </si>
+  <si>
+    <t>SRN6045TA-6R8M</t>
+  </si>
+  <si>
+    <t>SRN6045TA-6R8MCT-ND</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>10118194-0001LF</t>
+  </si>
+  <si>
+    <t>609-4618-1-ND</t>
+  </si>
+  <si>
+    <t>Amphenol</t>
+  </si>
+  <si>
+    <t>GPTS203212B</t>
+  </si>
+  <si>
+    <t>CW182-ND</t>
+  </si>
+  <si>
+    <t>CW Industries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -382,8 +648,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,14 +687,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -464,11 +731,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,9 +804,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -536,38 +827,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -907,10 +1199,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -929,22 +1221,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -957,10 +1249,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>1</v>
@@ -995,41 +1287,41 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <f>(B6*$H$23)</f>
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29">
+        <f>(B6*$H$39)</f>
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H6" s="14">
         <f>IF(C6&lt;=9,0.91,IF(C6&lt;=99,0.811,IF(C6&lt;=499,0.6325)))</f>
@@ -1042,601 +1334,1332 @@
       <c r="J6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="30" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="M6" s="34" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29">
+        <f>(B7*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="14">
+        <f>IF(C7&lt;=9,0.69,IF(C7&lt;=99,0.608,IF(C7&lt;=499,0.4665)))</f>
+        <v>0.69</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" ref="I7:I36" si="0">(C7*H7)</f>
+        <v>0.69</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29">
+        <f>(B8*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="14">
+        <f>IF(C8&lt;=9,0.89,IF(C8&lt;=24,0.7456,IF(C8&lt;=99,0.6825)))</f>
+        <v>0.89</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
+        <f>(B9*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="14">
+        <f>IF(C9&lt;=9,3.19,IF(C9&lt;=99,2.868,IF(C9&lt;=499,2.3499)))</f>
+        <v>3.19</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
+        <v>3.19</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>5</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <f>(B10*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="14">
+        <f>IF(C10&lt;=9,0.46,IF(C10&lt;=99,0.346,IF(C10&lt;=499,0.2153)))</f>
+        <v>0.46</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>6</v>
+      </c>
+      <c r="B11" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="12">
-        <f t="shared" ref="C7:C20" si="0">(B7*$H$23)</f>
+      <c r="C11" s="29">
+        <f>(B11*$H$39)</f>
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="14">
-        <f>IF(C7&lt;=9,1.14,IF(C7&lt;=99,1.083,IF(C7&lt;=249,0.969)))</f>
+      <c r="F11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="14">
+        <f>IF(C11&lt;=9,1.14,IF(C11&lt;=99,1.083,IF(C11&lt;=249,0.969)))</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="I7" s="14">
-        <f t="shared" ref="I7:I16" si="1">(C7*H7)</f>
+      <c r="I11" s="14">
+        <f t="shared" si="0"/>
         <v>2.2799999999999998</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="J11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>6</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2</v>
+      </c>
+      <c r="C12" s="29">
+        <f>(B12*$H$39)</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="14">
+        <f>IF(C12&lt;=9,1.22,IF(C12&lt;=99,1.159,IF(C12&gt;=100,1.037)))</f>
+        <v>1.22</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
+        <v>2.44</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>7</v>
+      </c>
+      <c r="B13" s="22">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29">
+        <f>(B13*$H$39)</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="14">
+        <f>IF(C13&lt;=9,0.39,IF(C13&lt;=99,0.293,IF(C13&lt;=499,0.166)))</f>
+        <v>0.39</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>8</v>
+      </c>
+      <c r="B14" s="22">
+        <v>2</v>
+      </c>
+      <c r="C14" s="29">
+        <f>(B14*$H$39)</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="14">
+        <f>IF(C14&lt;=9,0.1,IF(C14&lt;=99,0.018,IF(C14&lt;=499,0.0079)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>9</v>
+      </c>
+      <c r="B15" s="22">
+        <v>2</v>
+      </c>
+      <c r="C15" s="29">
+        <f>(B15*$H$39)</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="14">
+        <f>IF(C15&lt;=9,0.26,IF(C15&lt;=99,0.178,IF(C15&lt;=499,0.101)))</f>
+        <v>0.26</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="22">
+        <v>2</v>
+      </c>
+      <c r="C16" s="29">
+        <f>(B16*$H$39)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="14">
+        <f>IF(C16&lt;=9,0.1,IF(C16&lt;=99,0.022,IF(C16&lt;=499,0.01)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>11</v>
+      </c>
+      <c r="B17" s="22">
         <v>3</v>
       </c>
-      <c r="B8" s="23">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C17" s="29">
+        <f>(B17*$H$39)</f>
+        <v>3</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="14">
+        <f>IF(C17&lt;=9,0.13,IF(C17&lt;=99,0.094,IF(C17&lt;=499,0.0444)))</f>
+        <v>0.13</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>12</v>
+      </c>
+      <c r="B18" s="22">
+        <v>1</v>
+      </c>
+      <c r="C18" s="29">
+        <f>(B18*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="14">
+        <f>IF(C18&lt;=9,0.11,IF(C18&lt;=99,0.079,IF(C18&lt;=499,0.037)))</f>
+        <v>0.11</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29">
+        <f>(B19*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="14">
+        <f>IF(C19&lt;=9,0.15,IF(C19&lt;=99,0.108,IF(C19&lt;=499,0.0506)))</f>
+        <v>0.15</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>14</v>
+      </c>
+      <c r="B20" s="22">
+        <v>1</v>
+      </c>
+      <c r="C20" s="29">
+        <f>(B20*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="14">
+        <f>IF(C20&lt;=9,0.23,IF(C20&lt;=99,0.159,IF(C20&lt;=499,0.0808)))</f>
+        <v>0.23</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>15</v>
+      </c>
+      <c r="B21" s="22">
+        <v>1</v>
+      </c>
+      <c r="C21" s="29">
+        <f>(B21*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10" t="s">
+      <c r="E21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="14">
+        <f>IF(C21&lt;=9,0.17,IF(C21&lt;=24,0.145,IF(C21&lt;=49,0.0766)))</f>
+        <v>0.17</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>16</v>
+      </c>
+      <c r="B22" s="22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="29">
+        <f>(B22*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="14">
+        <f>IF(C22&lt;=9,0.1,IF(C22&lt;=99,0.015,IF(C22&lt;=499,0.006)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>17</v>
+      </c>
+      <c r="B23" s="22">
+        <v>3</v>
+      </c>
+      <c r="C23" s="29">
+        <f>(B23*$H$39)</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="14">
+        <f>IF(C23&lt;=9,0.1,IF(C23&lt;=99,0.015,IF(C23&lt;=499,0.006)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>18</v>
+      </c>
+      <c r="B24" s="22">
+        <v>1</v>
+      </c>
+      <c r="C24" s="29">
+        <f>(B24*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="14">
+        <f>IF(C24&lt;=9,0.1,IF(C24&lt;=99,0.011,IF(C24&lt;=999,0.0046)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>19</v>
+      </c>
+      <c r="B25" s="22">
+        <v>1</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" ref="C25" si="1">(B25*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="14">
+        <f>IF(C25&lt;=9,0.1,IF(C25&lt;=99,0.011,IF(C25&lt;=99,0.0046)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22">
+        <v>1</v>
+      </c>
+      <c r="C26" s="29">
+        <f>(B26*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="14">
+        <f>IF(C26&lt;=9,0.1,IF(C26&lt;=99,0.015,IF(C26&lt;=499,0.006)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>21</v>
+      </c>
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="29">
+        <f>(B27*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="14">
+        <f>IF(C27&lt;=9,0.1,IF(C27&lt;=99,0.015,IF(C27&lt;=499,0.006)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>22</v>
+      </c>
+      <c r="B28" s="22">
+        <v>1</v>
+      </c>
+      <c r="C28" s="29">
+        <f>(B28*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="14">
+        <f>IF(C28&lt;=9,0.1,IF(C28&lt;=99,0.011,IF(C28&lt;=499,0.0046)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>23</v>
+      </c>
+      <c r="B29" s="22">
+        <v>1</v>
+      </c>
+      <c r="C29" s="29">
+        <f>(B29*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="14">
+        <f>IF(C29&lt;=9,0.1,IF(C29&lt;=99,0.015,IF(C29&lt;=499,0.006)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>24</v>
+      </c>
+      <c r="B30" s="22">
+        <v>1</v>
+      </c>
+      <c r="C30" s="29">
+        <f>(B30*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="14">
+        <f>IF(C30&lt;=9,0.1,IF(C30&lt;=99,0.015,IF(C30&lt;=499,0.006)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>25</v>
+      </c>
+      <c r="B31" s="22">
+        <v>1</v>
+      </c>
+      <c r="C31" s="29">
+        <f>(B31*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="14">
+        <f>IF(C31&lt;=9,0.36,IF(C31&lt;=99,0.317,IF(C31&lt;=499,0.2182)))</f>
+        <v>0.36</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>26</v>
+      </c>
+      <c r="B32" s="35">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <f>(B32*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="14">
+        <f>IF(C32&lt;=9,0.47,IF(C32&lt;=99,0.411,IF(C32&lt;=499,0.2933)))</f>
+        <v>0.47</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>27</v>
+      </c>
+      <c r="B33" s="22">
+        <v>1</v>
+      </c>
+      <c r="C33" s="29">
+        <f>(B33*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1043</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="14">
+        <f>IF(C33&lt;=9,2.31,IF(C33&lt;=49,1.962,IF(C33&lt;=99,1.7622)))</f>
+        <v>2.31</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="0"/>
+        <v>2.31</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="31"/>
+      <c r="L33" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>28</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="29">
+        <f>(B34*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" s="14">
+        <f>IF(C34&lt;=9,0.74,IF(C34&lt;=24,0.693,IF(C34&lt;=49,0.66)))</f>
+        <v>0.74</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="32"/>
+      <c r="L34" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>29</v>
+      </c>
+      <c r="B35" s="22">
+        <v>1</v>
+      </c>
+      <c r="C35" s="29">
+        <f>(B35*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="14">
+        <f>IF(C35&lt;=9,0.46,IF(C35&lt;=24,0.437,IF(C35&lt;=49,0.3744)))</f>
+        <v>0.46</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>30</v>
+      </c>
+      <c r="B36" s="22">
+        <v>1</v>
+      </c>
+      <c r="C36" s="29">
+        <f>(B36*$H$39)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="14">
+        <v>5</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="33"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I40" s="7">
+        <f>SUM(I6:I11,I13:I35)</f>
+        <v>16.609999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I42" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I43" s="7">
+        <f>SUM(I6:I10,I12:I35)</f>
+        <v>16.769999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="14">
-        <f>IF(C8&lt;=9,0.15,IF(C8&lt;=99,0.1,IF(C8&lt;=999,0.047)))</f>
-        <v>0.15</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="14">
-        <f>IF(C9&lt;=9,0.12,IF(C9&lt;=99,0.08,IF(C9&lt;=999,0.038)))</f>
-        <v>0.12</v>
-      </c>
-      <c r="I9" s="14">
-        <f>(C9*H9)</f>
-        <v>0.12</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I46" s="7">
+        <f>SUM(I36:I36)</f>
         <v>5</v>
       </c>
-      <c r="B10" s="23">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="14">
-        <f>IF(C10&lt;=9,0.1,IF(C10&lt;=99,0.019,IF(C10&lt;=499,0.013)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="14">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>6</v>
-      </c>
-      <c r="B11" s="23">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="14">
-        <f>IF(C11&lt;=9,0.1,IF(C11&lt;=99,0.086,IF(C11&lt;=999,0.048)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>7</v>
-      </c>
-      <c r="B12" s="23">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="14">
-        <f>IF(C12&lt;=9,0.09,IF(C12&lt;=99,0.02,IF(C12&lt;=999,0.01)))</f>
-        <v>0.09</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="1"/>
-        <v>0.09</v>
-      </c>
-      <c r="J12" s="12" t="s">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I48" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="7">
+        <f>SUM(I40+I43+(2*I46))</f>
+        <v>43.379999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D54" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
-        <v>8</v>
-      </c>
-      <c r="B13" s="23">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="14">
-        <f>IF(C13&lt;=9,0.08,IF(C13&lt;=99,0.009,IF(C13&lt;=999,0.004)))</f>
-        <v>0.08</v>
-      </c>
-      <c r="I13" s="14">
-        <f t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <v>9</v>
-      </c>
-      <c r="B14" s="23">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="14">
-        <f>IF(C14&lt;=9,0.36,IF(C14&lt;=99,0.317,IF(C14&lt;=499,0.2182)))</f>
-        <v>0.36</v>
-      </c>
-      <c r="I14" s="14">
-        <f t="shared" si="1"/>
-        <v>0.36</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
-        <v>10</v>
-      </c>
-      <c r="B15" s="23">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="14">
-        <f>IF(C15&lt;=9,0.46,IF(C15&lt;=99,0.346,IF(C15&lt;=499,0.2153)))</f>
-        <v>0.46</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="23">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1043</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="14">
-        <f>IF(C16&lt;=9,2.31,IF(C16&lt;=49,1.962,IF(C16&lt;=99,1.7622)))</f>
-        <v>2.31</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="1"/>
-        <v>2.31</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
-        <v>12</v>
-      </c>
-      <c r="B18" s="23">
-        <v>2</v>
-      </c>
-      <c r="C18" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="14">
-        <f>IF(C18&lt;=9,1.22,IF(C18&lt;=99,1.159,IF(C18&gt;=100,1.037)))</f>
-        <v>1.22</v>
-      </c>
-      <c r="I18" s="14">
-        <f>C18*H18</f>
-        <v>2.44</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="33">
-        <v>23</v>
-      </c>
-      <c r="B20" s="23">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="32">
-        <v>2.15</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" ref="I20" si="2">C20*H20</f>
-        <v>2.15</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I24" s="7">
-        <f>SUM(I6:I16)</f>
-        <v>7.0600000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I26" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I27" s="7">
-        <f>SUM(I6,I8:I16,I18)</f>
-        <v>7.2200000000000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I29" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I30" s="7">
-        <f>SUM(I20:I20)</f>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I32" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="7">
-        <f>SUM(I24+I27+(2*I30))</f>
-        <v>18.580000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F46" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F50" s="38" t="s">
-        <v>78</v>
-      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M6" r:id="rId1" xr:uid="{565554BE-1CDF-4A40-903D-D9BEB925EE4E}"/>
+  </hyperlinks>
   <pageMargins left="0.22" right="0.28999999999999998" top="0.3" bottom="0.4" header="0.22" footer="0.28999999999999998"/>
-  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="73" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/LongboardLights Gen2 BOM.xlsx
+++ b/LongboardLights Gen2 BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,14 +15,14 @@
     <sheet name="Turnkey" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$L$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$L$18</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="129">
   <si>
     <t>Description</t>
   </si>
@@ -72,30 +72,18 @@
     <t>Diodes Inc</t>
   </si>
   <si>
-    <t>LED Driver</t>
-  </si>
-  <si>
     <t>Cree Inc</t>
   </si>
   <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>D1,D2</t>
-  </si>
-  <si>
     <t>Red LED</t>
   </si>
   <si>
     <t>941-XPCREDL1R250201</t>
   </si>
   <si>
-    <t>AL8805W5-7</t>
-  </si>
-  <si>
-    <t>SOT-25</t>
-  </si>
-  <si>
     <t>SMD-2</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
   </si>
   <si>
     <t>Schottky Diode</t>
-  </si>
-  <si>
-    <t>1uF Capacitor</t>
   </si>
   <si>
     <t>PCB Total:</t>
@@ -209,9 +194,6 @@
     <t>1414</t>
   </si>
   <si>
-    <t>AL8805W5-7DICT-ND</t>
-  </si>
-  <si>
     <t>Board Qty</t>
   </si>
   <si>
@@ -224,15 +206,6 @@
     <t>Taiyo Yuden</t>
   </si>
   <si>
-    <t>NR6028T470M</t>
-  </si>
-  <si>
-    <t>587-2104-1-ND</t>
-  </si>
-  <si>
-    <t>47uH Inductor</t>
-  </si>
-  <si>
     <t>6mm x 6mm</t>
   </si>
   <si>
@@ -245,18 +218,12 @@
     <t>Keystone Electronics</t>
   </si>
   <si>
-    <t>LC05111C02MTTTGOSCT-ND</t>
-  </si>
-  <si>
     <t>DMN2040LTS-13</t>
   </si>
   <si>
     <t>MCP73833T-FCI/MF</t>
   </si>
   <si>
-    <t>TPS55330RTER</t>
-  </si>
-  <si>
     <t>SS24FL</t>
   </si>
   <si>
@@ -269,54 +236,21 @@
     <t>U3</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>D3,D4</t>
-  </si>
-  <si>
-    <t>C1,C11</t>
-  </si>
-  <si>
     <t>0.1uF Capacitor</t>
   </si>
   <si>
-    <t>C2,C8</t>
-  </si>
-  <si>
-    <t>C3,C4</t>
-  </si>
-  <si>
-    <t>C5,C9,C10</t>
-  </si>
-  <si>
     <t>10uF Capacitor</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
     <t>Micro USB Port</t>
   </si>
   <si>
-    <t>26K ohm Resistor</t>
-  </si>
-  <si>
     <t>0.3 ohm Resistor</t>
   </si>
   <si>
-    <t>R3,R7,R12</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -332,39 +266,12 @@
     <t>330 Ohm Resistor</t>
   </si>
   <si>
-    <t>60.4K Ohm Resistor</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>562 Ohm Resistor</t>
-  </si>
-  <si>
     <t>20K Ohm Resistor</t>
   </si>
   <si>
     <t>1K Ohm Resistor</t>
   </si>
   <si>
-    <t>63.4K Ohm Resistor</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>6.8uH Inductor</t>
-  </si>
-  <si>
     <t>Battery Holder</t>
   </si>
   <si>
@@ -374,9 +281,6 @@
     <t>Battery Charger IC</t>
   </si>
   <si>
-    <t>SMPS IC</t>
-  </si>
-  <si>
     <t>Battery Protection IC</t>
   </si>
   <si>
@@ -401,9 +305,6 @@
     <t>6-WFDFN</t>
   </si>
   <si>
-    <t>https://www.diodes.com/assets/Datasheets/AL8805.pdf</t>
-  </si>
-  <si>
     <t>Texas Instruments</t>
   </si>
   <si>
@@ -413,9 +314,6 @@
     <t>Microchip Technology</t>
   </si>
   <si>
-    <t>296-39425-1-ND</t>
-  </si>
-  <si>
     <t>http://www.ti.com/lit/ds/symlink/tps55330.pdf</t>
   </si>
   <si>
@@ -449,39 +347,9 @@
     <t>ThruHole</t>
   </si>
   <si>
-    <t>5.1nF (5100pF) Capacitor</t>
-  </si>
-  <si>
-    <t>490-6399-1-ND</t>
-  </si>
-  <si>
-    <t>GRM1887U1H512JA01D</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>56nF (0.056uF) Capacitor</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
-    <t>1276-2096-1-ND</t>
-  </si>
-  <si>
-    <t>CL10B563KB8NNNC</t>
-  </si>
-  <si>
-    <t>270nF (0.27uF) Capacitor</t>
-  </si>
-  <si>
-    <t>GCM188R71C274KA37D</t>
-  </si>
-  <si>
-    <t>490-16405-1-ND</t>
-  </si>
-  <si>
     <t>1276-1005-1-ND</t>
   </si>
   <si>
@@ -494,12 +362,6 @@
     <t>1276-1784-1-ND</t>
   </si>
   <si>
-    <t>1276-6524-1-ND</t>
-  </si>
-  <si>
-    <t>CL10B105MO8NNWC</t>
-  </si>
-  <si>
     <t>CL21A106KOQNNNG</t>
   </si>
   <si>
@@ -515,12 +377,6 @@
     <t>Yageo</t>
   </si>
   <si>
-    <t>311-26.1KHRCT-ND</t>
-  </si>
-  <si>
-    <t>RC0603FR-0726K1L</t>
-  </si>
-  <si>
     <t>RC0603FR-0710KL</t>
   </si>
   <si>
@@ -539,18 +395,6 @@
     <t>311-330GRCT-ND</t>
   </si>
   <si>
-    <t>RC0603FR-0760K4L</t>
-  </si>
-  <si>
-    <t>311-60.4KHRCT-ND</t>
-  </si>
-  <si>
-    <t>RC0603FR-07562RL</t>
-  </si>
-  <si>
-    <t>311-562HRCT-ND</t>
-  </si>
-  <si>
     <t>RC0603FR-071KL</t>
   </si>
   <si>
@@ -563,21 +407,6 @@
     <t>311-20KGRCT-ND</t>
   </si>
   <si>
-    <t>RC0603FR-0763K4L</t>
-  </si>
-  <si>
-    <t>311-63.4KHRCT-ND</t>
-  </si>
-  <si>
-    <t>SRN6045TA-6R8M</t>
-  </si>
-  <si>
-    <t>SRN6045TA-6R8MCT-ND</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
     <t>10118194-0001LF</t>
   </si>
   <si>
@@ -594,6 +423,42 @@
   </si>
   <si>
     <t>CW Industries</t>
+  </si>
+  <si>
+    <t>AP5724FDCG-7</t>
+  </si>
+  <si>
+    <t>AP5724FDCGDICT-ND</t>
+  </si>
+  <si>
+    <t>LED Driver IC</t>
+  </si>
+  <si>
+    <t>D2,D3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2,C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>22uH Inductor</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>NRS4018T220MDGJ</t>
+  </si>
+  <si>
+    <t>587-2889-1-ND</t>
   </si>
 </sst>
 </file>
@@ -603,7 +468,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -648,13 +513,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -688,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -724,17 +582,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -758,11 +605,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,29 +683,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1199,10 +1040,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1221,22 +1062,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1249,10 +1090,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>1</v>
@@ -1307,384 +1148,381 @@
       <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="29">
-        <f>(B6*$H$39)</f>
+      <c r="C6" s="28">
+        <f>(B6*$H$29)</f>
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H6" s="14">
-        <f>IF(C6&lt;=9,0.91,IF(C6&lt;=99,0.811,IF(C6&lt;=499,0.6325)))</f>
-        <v>0.91</v>
+        <f>IF(C6&lt;=9,0.69,IF(C6&lt;=99,0.608,IF(C6&lt;=499,0.4665)))</f>
+        <v>0.69</v>
       </c>
       <c r="I6" s="14">
-        <f>(C6*H6)</f>
-        <v>0.91</v>
+        <f t="shared" ref="I6" si="0">(C6*H6)</f>
+        <v>0.69</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>23</v>
+        <v>69</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="34" t="s">
-        <v>109</v>
+      <c r="M6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="22">
         <v>1</v>
       </c>
-      <c r="C7" s="29">
-        <f>(B7*$H$39)</f>
+      <c r="C7" s="28">
+        <f>(B7*$H$29)</f>
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H7" s="14">
-        <f>IF(C7&lt;=9,0.69,IF(C7&lt;=99,0.608,IF(C7&lt;=499,0.4665)))</f>
-        <v>0.69</v>
+        <f>IF(C7&lt;=9,0.89,IF(C7&lt;=24,0.7456,IF(C7&lt;=99,0.6825)))</f>
+        <v>0.89</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" ref="I7:I36" si="0">(C7*H7)</f>
-        <v>0.69</v>
+        <f t="shared" ref="I7:I26" si="1">(C7*H7)</f>
+        <v>0.89</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>108</v>
+        <v>68</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="22">
         <v>1</v>
       </c>
-      <c r="C8" s="29">
-        <f>(B8*$H$39)</f>
+      <c r="C8" s="28">
+        <f>(B8*$H$29)</f>
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H8" s="14">
-        <f>IF(C8&lt;=9,0.89,IF(C8&lt;=24,0.7456,IF(C8&lt;=99,0.6825)))</f>
-        <v>0.89</v>
+        <f>IF(C8&lt;=9,0.45,IF(C8&lt;=99,0.363,IF(C8&lt;=499,0.2472)))</f>
+        <v>0.45</v>
       </c>
       <c r="I8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.89</v>
+        <f t="shared" si="1"/>
+        <v>0.45</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="22">
         <v>1</v>
       </c>
-      <c r="C9" s="29">
-        <f>(B9*$H$39)</f>
+      <c r="C9" s="28">
+        <f>(B9*$H$29)</f>
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="H9" s="14">
-        <f>IF(C9&lt;=9,3.19,IF(C9&lt;=99,2.868,IF(C9&lt;=499,2.3499)))</f>
-        <v>3.19</v>
+        <f>IF(C9&lt;=9,0.46,IF(C9&lt;=99,0.346,IF(C9&lt;=499,0.2153)))</f>
+        <v>0.46</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" si="0"/>
-        <v>3.19</v>
+        <f t="shared" si="1"/>
+        <v>0.46</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>115</v>
+        <v>67</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="22">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29">
-        <f>(B10*$H$39)</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="28">
+        <f>(B10*$H$29)</f>
+        <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="H10" s="14">
-        <f>IF(C10&lt;=9,0.46,IF(C10&lt;=99,0.346,IF(C10&lt;=499,0.2153)))</f>
-        <v>0.46</v>
+        <f>IF(C10&lt;=9,1.14,IF(C10&lt;=99,1.083,IF(C10&lt;=249,0.969)))</f>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
+        <f t="shared" si="1"/>
+        <v>2.2799999999999998</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>119</v>
+        <v>38</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="24">
         <v>6</v>
       </c>
       <c r="B11" s="22">
         <v>2</v>
       </c>
-      <c r="C11" s="29">
-        <f>(B11*$H$39)</f>
+      <c r="C11" s="28">
+        <f>(B11*$H$29)</f>
         <v>2</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="H11" s="14">
-        <f>IF(C11&lt;=9,1.14,IF(C11&lt;=99,1.083,IF(C11&lt;=249,0.969)))</f>
-        <v>1.1399999999999999</v>
+        <f>IF(C11&lt;=9,1.22,IF(C11&lt;=99,1.159,IF(C11&gt;=100,1.037)))</f>
+        <v>1.22</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="0"/>
-        <v>2.2799999999999998</v>
+        <f t="shared" si="1"/>
+        <v>2.44</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M11" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <v>6</v>
+      <c r="A12" s="16">
+        <v>7</v>
       </c>
       <c r="B12" s="22">
-        <v>2</v>
-      </c>
-      <c r="C12" s="29">
-        <f>(B12*$H$39)</f>
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="28">
+        <f>(B12*$H$29)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="H12" s="14">
-        <f>IF(C12&lt;=9,1.22,IF(C12&lt;=99,1.159,IF(C12&gt;=100,1.037)))</f>
-        <v>1.22</v>
+        <f>IF(C12&lt;=9,0.39,IF(C12&lt;=99,0.293,IF(C12&lt;=499,0.166)))</f>
+        <v>0.39</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="0"/>
-        <v>2.44</v>
+        <f t="shared" si="1"/>
+        <v>0.39</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="M12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="22">
-        <v>2</v>
-      </c>
-      <c r="C13" s="29">
-        <f>(B13*$H$39)</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C13" s="28">
+        <f>(B13*$H$29)</f>
+        <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>61</v>
+        <v>91</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H13" s="14">
-        <f>IF(C13&lt;=9,0.39,IF(C13&lt;=99,0.293,IF(C13&lt;=499,0.166)))</f>
-        <v>0.39</v>
+        <f>IF(C13&lt;=9,0.1,IF(C13&lt;=99,0.018,IF(C13&lt;=499,0.0079)))</f>
+        <v>0.1</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.78</v>
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>122</v>
+        <v>54</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M13" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="22">
         <v>2</v>
       </c>
-      <c r="C14" s="29">
-        <f>(B14*$H$39)</f>
+      <c r="C14" s="28">
+        <f>(B14*$H$29)</f>
         <v>2</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="H14" s="14">
-        <f>IF(C14&lt;=9,0.1,IF(C14&lt;=99,0.018,IF(C14&lt;=499,0.0079)))</f>
-        <v>0.1</v>
+        <f>IF(C14&lt;=9,0.26,IF(C14&lt;=99,0.178,IF(C14&lt;=499,0.101)))</f>
+        <v>0.26</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.52</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>12</v>
@@ -1692,40 +1530,40 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" s="22">
-        <v>2</v>
-      </c>
-      <c r="C15" s="29">
-        <f>(B15*$H$39)</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="28">
+        <f>(B15*$H$29)</f>
+        <v>1</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="H15" s="14">
-        <f>IF(C15&lt;=9,0.26,IF(C15&lt;=99,0.178,IF(C15&lt;=499,0.101)))</f>
-        <v>0.26</v>
+        <f>IF(C15&lt;=9,0.13,IF(C15&lt;=99,0.094,IF(C15&lt;=499,0.0444)))</f>
+        <v>0.13</v>
       </c>
       <c r="I15" s="14">
-        <f t="shared" si="0"/>
-        <v>0.52</v>
+        <f t="shared" si="1"/>
+        <v>0.13</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>12</v>
@@ -1733,40 +1571,40 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16" s="22">
-        <v>2</v>
-      </c>
-      <c r="C16" s="29">
-        <f>(B16*$H$39)</f>
-        <v>2</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="28">
+        <f>(B16*$H$29)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="H16" s="14">
-        <f>IF(C16&lt;=9,0.1,IF(C16&lt;=99,0.022,IF(C16&lt;=499,0.01)))</f>
-        <v>0.1</v>
+        <f>IF(C16&lt;=9,0.17,IF(C16&lt;=24,0.145,IF(C16&lt;=49,0.0766)))</f>
+        <v>0.17</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.17</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>12</v>
@@ -1774,81 +1612,80 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B17" s="22">
         <v>3</v>
       </c>
-      <c r="C17" s="29">
-        <f>(B17*$H$39)</f>
-        <v>3</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>130</v>
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="H17" s="14">
-        <f>IF(C17&lt;=9,0.13,IF(C17&lt;=99,0.094,IF(C17&lt;=499,0.0444)))</f>
-        <v>0.13</v>
+        <f>IF(C17&lt;=9,0.1,IF(C17&lt;=99,0.015,IF(C17&lt;=499,0.006)))</f>
+        <v>0.1</v>
       </c>
       <c r="I17" s="14">
-        <f t="shared" si="0"/>
-        <v>0.39</v>
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B18" s="22">
         <v>1</v>
       </c>
-      <c r="C18" s="29">
-        <f>(B18*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>130</v>
+      <c r="C18" s="28">
+        <f>(B18*$H$29)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="H18" s="14">
-        <f>IF(C18&lt;=9,0.11,IF(C18&lt;=99,0.079,IF(C18&lt;=499,0.037)))</f>
-        <v>0.11</v>
+        <f>IF(C18&lt;=9,0.1,IF(C18&lt;=99,0.011,IF(C18&lt;=999,0.0046)))</f>
+        <v>0.1</v>
       </c>
       <c r="I18" s="14">
-        <f t="shared" si="0"/>
-        <v>0.11</v>
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>12</v>
@@ -1856,40 +1693,40 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B19" s="22">
         <v>1</v>
       </c>
-      <c r="C19" s="29">
-        <f>(B19*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>128</v>
+      <c r="C19" s="28">
+        <f>(B19*$H$29)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="H19" s="14">
-        <f>IF(C19&lt;=9,0.15,IF(C19&lt;=99,0.108,IF(C19&lt;=499,0.0506)))</f>
-        <v>0.15</v>
+        <f>IF(C19&lt;=9,0.1,IF(C19&lt;=99,0.011,IF(C19&lt;=99,0.0046)))</f>
+        <v>0.1</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>12</v>
@@ -1897,81 +1734,82 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B20" s="22">
         <v>1</v>
       </c>
-      <c r="C20" s="29">
-        <f>(B20*$H$39)</f>
+      <c r="C20" s="28">
+        <f>(B20*$H$29)</f>
         <v>1</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>128</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H20" s="14">
-        <f>IF(C20&lt;=9,0.23,IF(C20&lt;=99,0.159,IF(C20&lt;=499,0.0808)))</f>
-        <v>0.23</v>
+        <f>IF(C20&lt;=9,0.1,IF(C20&lt;=99,0.011,IF(C20&lt;=499,0.0046)))</f>
+        <v>0.1</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" si="0"/>
-        <v>0.23</v>
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B21" s="22">
         <v>1</v>
       </c>
-      <c r="C21" s="29">
-        <f>(B21*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="28">
+        <f>(B21*$H$29)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="14">
+        <f>IF(C21&lt;=9,0.1,IF(C21&lt;=99,0.015,IF(C21&lt;=499,0.006)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="29" t="s">
         <v>25</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="H21" s="14">
-        <f>IF(C21&lt;=9,0.17,IF(C21&lt;=24,0.145,IF(C21&lt;=49,0.0766)))</f>
-        <v>0.17</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>29</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>12</v>
@@ -1979,40 +1817,40 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B22" s="22">
         <v>1</v>
       </c>
-      <c r="C22" s="29">
-        <f>(B22*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>146</v>
+      <c r="C22" s="28">
+        <f>(B22*$H$29)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H22" s="14">
-        <f>IF(C22&lt;=9,0.1,IF(C22&lt;=99,0.015,IF(C22&lt;=499,0.006)))</f>
-        <v>0.1</v>
+        <f>IF(C22&lt;=9,0.29,IF(C22&lt;=99,0.264,IF(C22&lt;=499,0.1793)))</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I22" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>29</v>
+        <v>125</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>12</v>
@@ -2020,646 +1858,231 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B23" s="22">
-        <v>3</v>
-      </c>
-      <c r="C23" s="29">
-        <f>(B23*$H$39)</f>
-        <v>3</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="C23" s="28">
+        <f>(B23*$H$29)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1043</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="H23" s="14">
-        <f>IF(C23&lt;=9,0.1,IF(C23&lt;=99,0.015,IF(C23&lt;=499,0.006)))</f>
-        <v>0.1</v>
+        <f>IF(C23&lt;=9,2.31,IF(C23&lt;=49,1.962,IF(C23&lt;=99,1.7622)))</f>
+        <v>2.31</v>
       </c>
       <c r="I23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="1"/>
+        <v>2.31</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>29</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K23" s="30"/>
       <c r="L23" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
-        <v>18</v>
-      </c>
-      <c r="B24" s="22">
-        <v>1</v>
-      </c>
-      <c r="C24" s="29">
-        <f>(B24*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>146</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="28">
+        <f>(B24*$H$29)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="H24" s="14">
-        <f>IF(C24&lt;=9,0.1,IF(C24&lt;=99,0.011,IF(C24&lt;=999,0.0046)))</f>
-        <v>0.1</v>
+        <f>IF(C24&lt;=9,0.74,IF(C24&lt;=24,0.693,IF(C24&lt;=49,0.66)))</f>
+        <v>0.74</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.74</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>29</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K24" s="31"/>
       <c r="L24" s="12" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B25" s="22">
         <v>1</v>
       </c>
-      <c r="C25" s="29">
-        <f t="shared" ref="C25" si="1">(B25*$H$39)</f>
+      <c r="C25" s="28">
+        <f>(B25*$H$29)</f>
         <v>1</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="H25" s="14">
-        <f>IF(C25&lt;=9,0.1,IF(C25&lt;=99,0.011,IF(C25&lt;=99,0.0046)))</f>
-        <v>0.1</v>
+        <f>IF(C25&lt;=9,0.46,IF(C25&lt;=24,0.437,IF(C25&lt;=49,0.3744)))</f>
+        <v>0.46</v>
       </c>
       <c r="I25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.46</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
-        <v>20</v>
+      <c r="A26" s="25">
+        <v>30</v>
       </c>
       <c r="B26" s="22">
         <v>1</v>
       </c>
-      <c r="C26" s="29">
-        <f>(B26*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>83</v>
+      <c r="C26" s="28">
+        <f>(B26*$H$29)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>156</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G26" s="10"/>
       <c r="H26" s="14">
-        <f>IF(C26&lt;=9,0.1,IF(C26&lt;=99,0.015,IF(C26&lt;=499,0.006)))</f>
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S26" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K26" s="32"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
-        <v>21</v>
-      </c>
-      <c r="B27" s="22">
-        <v>1</v>
-      </c>
-      <c r="C27" s="29">
-        <f>(B27*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="14">
-        <f>IF(C27&lt;=9,0.1,IF(C27&lt;=99,0.015,IF(C27&lt;=499,0.006)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="I27" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
-        <v>22</v>
-      </c>
-      <c r="B28" s="22">
-        <v>1</v>
-      </c>
-      <c r="C28" s="29">
-        <f>(B28*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" s="14">
-        <f>IF(C28&lt;=9,0.1,IF(C28&lt;=99,0.011,IF(C28&lt;=499,0.0046)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
-        <v>23</v>
-      </c>
-      <c r="B29" s="22">
-        <v>1</v>
-      </c>
-      <c r="C29" s="29">
-        <f>(B29*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="14">
-        <f>IF(C29&lt;=9,0.1,IF(C29&lt;=99,0.015,IF(C29&lt;=499,0.006)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="I29" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>12</v>
+      <c r="G29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
-        <v>24</v>
-      </c>
-      <c r="B30" s="22">
-        <v>1</v>
-      </c>
-      <c r="C30" s="29">
-        <f>(B30*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="14">
-        <f>IF(C30&lt;=9,0.1,IF(C30&lt;=99,0.015,IF(C30&lt;=499,0.006)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K30" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>12</v>
+      <c r="I30" s="7">
+        <f>SUM(I6:I10,I12:I25)</f>
+        <v>10.379999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
-        <v>25</v>
-      </c>
-      <c r="B31" s="22">
-        <v>1</v>
-      </c>
-      <c r="C31" s="29">
-        <f>(B31*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="14">
-        <f>IF(C31&lt;=9,0.36,IF(C31&lt;=99,0.317,IF(C31&lt;=499,0.2182)))</f>
-        <v>0.36</v>
-      </c>
-      <c r="I31" s="14">
-        <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
-        <v>26</v>
-      </c>
-      <c r="B32" s="35">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <f>(B32*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" s="14">
-        <f>IF(C32&lt;=9,0.47,IF(C32&lt;=99,0.411,IF(C32&lt;=499,0.2933)))</f>
-        <v>0.47</v>
-      </c>
-      <c r="I32" s="14">
-        <f t="shared" si="0"/>
-        <v>0.47</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="L32" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
-        <v>27</v>
-      </c>
-      <c r="B33" s="22">
-        <v>1</v>
-      </c>
-      <c r="C33" s="29">
-        <f>(B33*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="10">
-        <v>1043</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="14">
-        <f>IF(C33&lt;=9,2.31,IF(C33&lt;=49,1.962,IF(C33&lt;=99,1.7622)))</f>
-        <v>2.31</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" si="0"/>
-        <v>2.31</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
+      <c r="I32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-      <c r="C34" s="29">
-        <f>(B34*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H34" s="14">
-        <f>IF(C34&lt;=9,0.74,IF(C34&lt;=24,0.693,IF(C34&lt;=49,0.66)))</f>
-        <v>0.74</v>
-      </c>
-      <c r="I34" s="14">
-        <f t="shared" si="0"/>
-        <v>0.74</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
-        <v>29</v>
-      </c>
-      <c r="B35" s="22">
-        <v>1</v>
-      </c>
-      <c r="C35" s="29">
-        <f>(B35*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="14">
-        <f>IF(C35&lt;=9,0.46,IF(C35&lt;=24,0.437,IF(C35&lt;=49,0.3744)))</f>
-        <v>0.46</v>
-      </c>
-      <c r="I35" s="14">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="7">
+        <f>SUM(I6:I9,I11:I25)</f>
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="22">
-        <v>1</v>
-      </c>
-      <c r="C36" s="29">
-        <f>(B36*$H$39)</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="14">
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="7">
+        <f>SUM(I26:I26)</f>
         <v>5</v>
       </c>
-      <c r="I36" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G39" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I40" s="7">
-        <f>SUM(I6:I11,I13:I35)</f>
-        <v>16.609999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I42" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I43" s="7">
-        <f>SUM(I6:I10,I12:I35)</f>
-        <v>16.769999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I45" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I46" s="7">
-        <f>SUM(I36:I36)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I48" s="5" t="s">
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="7">
-        <f>SUM(I40+I43+(2*I46))</f>
-        <v>43.379999999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D54" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F62" s="2"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" s="27"/>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="7">
+        <f>SUM(I30+I33+(2*I36))</f>
+        <v>30.919999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D44" s="26"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="M6" r:id="rId1" xr:uid="{565554BE-1CDF-4A40-903D-D9BEB925EE4E}"/>
-  </hyperlinks>
   <pageMargins left="0.22" right="0.28999999999999998" top="0.3" bottom="0.4" header="0.22" footer="0.28999999999999998"/>
-  <pageSetup scale="73" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>